--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/0/Output_12_13.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/0/Output_12_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2620388.904587974</v>
+        <v>-2620615.31531124</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>244259.5951960776</v>
+        <v>244259.5951960775</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.050587375258601</v>
+        <v>4.033655068808351</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,16 +1376,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.050587375258601</v>
+        <v>6.050587375258893</v>
       </c>
       <c r="F11" t="n">
-        <v>6.050587375258601</v>
+        <v>5.329357360128078</v>
       </c>
       <c r="G11" t="n">
-        <v>6.050587375258601</v>
+        <v>6.050587375258893</v>
       </c>
       <c r="H11" t="n">
-        <v>3.31242505367713</v>
+        <v>6.050587375258893</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1397,22 +1397,22 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>6.050587375258601</v>
+        <v>6.050587375258893</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1820789432861716</v>
+        <v>0.1820789432860579</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1.172029238104017</v>
+        <v>1.172029238103882</v>
       </c>
       <c r="P11" t="n">
-        <v>6.050587375258601</v>
+        <v>6.050587375258893</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.3748116567057487</v>
+        <v>0.3748116567056172</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.776118928915366</v>
+        <v>1.776118928915253</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.050587375258601</v>
+        <v>6.050587375258893</v>
       </c>
     </row>
     <row r="12">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.855010797550412</v>
+        <v>6.855010797550119</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,16 +1613,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>4.233905767812439</v>
+        <v>6.855010797550119</v>
       </c>
       <c r="F14" t="n">
-        <v>6.855010797550412</v>
+        <v>6.855010797550119</v>
       </c>
       <c r="G14" t="n">
-        <v>6.855010797550412</v>
+        <v>4.233905767812081</v>
       </c>
       <c r="H14" t="n">
-        <v>6.855010797550412</v>
+        <v>6.855010797550119</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>6.855010797550412</v>
+        <v>6.855010797550119</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1643,13 +1643,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.92706862211611</v>
+        <v>0.9270686221162237</v>
       </c>
       <c r="P14" t="n">
-        <v>6.855010797550412</v>
+        <v>6.855010797550119</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.1298510407178419</v>
+        <v>0.1298510407179378</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.53115831292746</v>
+        <v>1.531158312927573</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.855010797550412</v>
+        <v>6.855010797550119</v>
       </c>
     </row>
     <row r="15">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>15.66159817792845</v>
+        <v>15.66159817792851</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2087,16 +2087,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>9.730692708929894</v>
+        <v>9.730692708929951</v>
       </c>
       <c r="F20" t="n">
-        <v>20.1854430787728</v>
+        <v>20.18544307877286</v>
       </c>
       <c r="G20" t="n">
-        <v>20.1854430787728</v>
+        <v>20.18544307877286</v>
       </c>
       <c r="H20" t="n">
-        <v>20.1854430787728</v>
+        <v>20.18544307877286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>9.662217209940877</v>
+        <v>9.662217209940913</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>5.042402378539521</v>
+        <v>5.042402378539578</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>20.1854430787728</v>
+        <v>20.18544307877286</v>
       </c>
     </row>
     <row r="21">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>14.3639979377221</v>
+        <v>14.36399793772205</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,16 +2324,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>8.433092468723544</v>
+        <v>8.433092468723487</v>
       </c>
       <c r="F23" t="n">
-        <v>31.2039757486005</v>
+        <v>31.20397574860044</v>
       </c>
       <c r="G23" t="n">
-        <v>31.2039757486005</v>
+        <v>31.20397574860044</v>
       </c>
       <c r="H23" t="n">
-        <v>26.93305820714147</v>
+        <v>26.93305820714141</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>8.364616969734506</v>
+        <v>8.36461696973447</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>3.744802138333171</v>
+        <v>3.744802138333114</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.2039757486005</v>
+        <v>31.20397574860044</v>
       </c>
     </row>
     <row r="24">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>14.3639979377221</v>
+        <v>14.36399793772205</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2798,16 +2798,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>8.433092468723544</v>
+        <v>8.433092468723487</v>
       </c>
       <c r="F29" t="n">
-        <v>31.2039757486005</v>
+        <v>31.20397574860056</v>
       </c>
       <c r="G29" t="n">
-        <v>31.2039757486005</v>
+        <v>31.20397574860056</v>
       </c>
       <c r="H29" t="n">
-        <v>26.93305820714147</v>
+        <v>26.93305820714141</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>8.364616969734527</v>
+        <v>8.364616969734449</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -2831,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>3.744802138333171</v>
+        <v>3.744802138333114</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.2039757486005</v>
+        <v>31.20397574860044</v>
       </c>
     </row>
     <row r="30">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>13.12845002201414</v>
+        <v>13.12845002201419</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3035,16 +3035,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>7.197544553015575</v>
+        <v>7.197544553015632</v>
       </c>
       <c r="F32" t="n">
-        <v>51.38941882737339</v>
+        <v>51.38941882737345</v>
       </c>
       <c r="G32" t="n">
-        <v>51.38941882737339</v>
+        <v>51.38941882737345</v>
       </c>
       <c r="H32" t="n">
-        <v>25.6975102914335</v>
+        <v>25.69751029143356</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3056,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>7.129069054026537</v>
+        <v>7.129069054026594</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>2.509254222625202</v>
+        <v>2.509254222625259</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>29.96842783289253</v>
+        <v>29.96842783289259</v>
       </c>
     </row>
     <row r="33">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>13.49880555947419</v>
+        <v>13.49880555947425</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3272,16 +3272,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>7.567900090475632</v>
+        <v>7.567900090475689</v>
       </c>
       <c r="F35" t="n">
-        <v>45.33883145211479</v>
+        <v>45.33883145211455</v>
       </c>
       <c r="G35" t="n">
-        <v>45.33883145211479</v>
+        <v>45.33883145211455</v>
       </c>
       <c r="H35" t="n">
-        <v>26.06786582889356</v>
+        <v>26.06786582889362</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>7.499424591486616</v>
+        <v>7.499424591486672</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>2.879609760085259</v>
+        <v>2.879609760085316</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>30.33878337035259</v>
+        <v>30.33878337035264</v>
       </c>
     </row>
     <row r="36">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>13.54804419540017</v>
+        <v>13.54804419540005</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3509,16 +3509,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>7.617138726401606</v>
+        <v>7.617138726401492</v>
       </c>
       <c r="F38" t="n">
-        <v>44.53440802982298</v>
+        <v>44.53440802982333</v>
       </c>
       <c r="G38" t="n">
-        <v>44.53440802982298</v>
+        <v>44.53440802982333</v>
       </c>
       <c r="H38" t="n">
-        <v>26.11710446481953</v>
+        <v>26.11710446481942</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3530,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>7.54866322741259</v>
+        <v>7.548663227412476</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>2.928848396011247</v>
+        <v>2.928848396011119</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>30.38802200627856</v>
+        <v>30.38802200627845</v>
       </c>
     </row>
     <row r="39">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>14.11903732173437</v>
+        <v>14.11903732173442</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3746,16 +3746,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>8.188131852735808</v>
+        <v>8.188131852735864</v>
       </c>
       <c r="F41" t="n">
-        <v>35.20595617177772</v>
+        <v>35.20595617177778</v>
       </c>
       <c r="G41" t="n">
-        <v>35.20595617177772</v>
+        <v>35.20595617177778</v>
       </c>
       <c r="H41" t="n">
-        <v>26.68809759115373</v>
+        <v>26.68809759115379</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>8.119656353746791</v>
+        <v>8.119656353746848</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>3.499841522345434</v>
+        <v>3.499841522345491</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>30.95901513261276</v>
+        <v>30.95901513261282</v>
       </c>
     </row>
     <row r="42">
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>3.744802138333363</v>
+        <v>3.744802138333341</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.18488113797122</v>
+        <v>12.22218649802297</v>
       </c>
       <c r="C11" t="n">
-        <v>16.17496263947723</v>
+        <v>18.21226799952927</v>
       </c>
       <c r="D11" t="n">
-        <v>22.16504414098325</v>
+        <v>24.20234950103557</v>
       </c>
       <c r="E11" t="n">
-        <v>16.05333972153012</v>
+        <v>18.09064508158219</v>
       </c>
       <c r="F11" t="n">
-        <v>9.941635302076984</v>
+        <v>12.70745582892757</v>
       </c>
       <c r="G11" t="n">
-        <v>3.82993088262385</v>
+        <v>6.59575140947414</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="I11" t="n">
-        <v>5.917404924076784</v>
+        <v>5.917404924076968</v>
       </c>
       <c r="J11" t="n">
-        <v>11.9074864255828</v>
+        <v>11.90748642558327</v>
       </c>
       <c r="K11" t="n">
-        <v>12.58119012440932</v>
+        <v>14.45383950377146</v>
       </c>
       <c r="L11" t="n">
-        <v>6.469485704956193</v>
+        <v>8.342135084318034</v>
       </c>
       <c r="M11" t="n">
-        <v>6.285567580424706</v>
+        <v>8.15821695978679</v>
       </c>
       <c r="N11" t="n">
-        <v>8.158216959786587</v>
+        <v>8.15821695978679</v>
       </c>
       <c r="O11" t="n">
-        <v>6.97434904250983</v>
+        <v>6.974349042510141</v>
       </c>
       <c r="P11" t="n">
-        <v>0.8626446230567979</v>
+        <v>0.8626446230566885</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="R11" t="n">
-        <v>2.153116234590367</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="S11" t="n">
-        <v>8.143197736096383</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="T11" t="n">
-        <v>12.22218649802237</v>
+        <v>6.474128491527016</v>
       </c>
       <c r="U11" t="n">
-        <v>18.21226799952839</v>
+        <v>12.46420999303332</v>
       </c>
       <c r="V11" t="n">
-        <v>24.2023495010344</v>
+        <v>18.45429149453963</v>
       </c>
       <c r="W11" t="n">
-        <v>24.2023495010344</v>
+        <v>24.20234950103557</v>
       </c>
       <c r="X11" t="n">
-        <v>22.40828997687748</v>
+        <v>22.40828997687877</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.29658555742435</v>
+        <v>16.29658555742534</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="N12" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="P12" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="R12" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="S12" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="T12" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="U12" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="V12" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="W12" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="X12" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="L13" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="N13" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="P13" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="R13" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="S13" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="T13" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="U13" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="V13" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="W13" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="X13" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.4840469900206881</v>
+        <v>0.4840469900207115</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>12.02491196997106</v>
+        <v>12.02491196997037</v>
       </c>
       <c r="C14" t="n">
-        <v>18.81137265954597</v>
+        <v>18.81137265954499</v>
       </c>
       <c r="D14" t="n">
-        <v>25.59783334912088</v>
+        <v>25.59783334911961</v>
       </c>
       <c r="E14" t="n">
-        <v>21.32116085638104</v>
+        <v>18.6735800182609</v>
       </c>
       <c r="F14" t="n">
-        <v>14.39690752552204</v>
+        <v>11.74932668740219</v>
       </c>
       <c r="G14" t="n">
-        <v>7.472654194663034</v>
+        <v>7.472654194662717</v>
       </c>
       <c r="H14" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="I14" t="n">
-        <v>6.224269807688239</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="J14" t="n">
-        <v>13.01073049726315</v>
+        <v>7.334861553378627</v>
       </c>
       <c r="K14" t="n">
-        <v>13.28708989938156</v>
+        <v>13.28708989938127</v>
       </c>
       <c r="L14" t="n">
-        <v>6.362836568522554</v>
+        <v>6.36283656852254</v>
       </c>
       <c r="M14" t="n">
-        <v>6.425089424497344</v>
+        <v>6.425089424497173</v>
       </c>
       <c r="N14" t="n">
-        <v>8.54024981368724</v>
+        <v>8.54024981368697</v>
       </c>
       <c r="O14" t="n">
-        <v>7.603816862054794</v>
+        <v>7.603816862054633</v>
       </c>
       <c r="P14" t="n">
-        <v>0.6795635311957925</v>
+        <v>0.679563531195866</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="R14" t="n">
-        <v>0.548400863804033</v>
+        <v>2.459981118201654</v>
       </c>
       <c r="S14" t="n">
-        <v>7.33486155337894</v>
+        <v>9.246441807776272</v>
       </c>
       <c r="T14" t="n">
-        <v>14.12132224295385</v>
+        <v>13.84712181105124</v>
       </c>
       <c r="U14" t="n">
-        <v>20.63358250062674</v>
+        <v>13.84712181105124</v>
       </c>
       <c r="V14" t="n">
-        <v>20.63358250062674</v>
+        <v>20.63358250062586</v>
       </c>
       <c r="W14" t="n">
-        <v>27.42004319020165</v>
+        <v>27.42004319020048</v>
       </c>
       <c r="X14" t="n">
-        <v>25.87341863168907</v>
+        <v>25.87341863168779</v>
       </c>
       <c r="Y14" t="n">
-        <v>18.94916530083007</v>
+        <v>18.94916530082908</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="C15" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="D15" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="E15" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="F15" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="G15" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="H15" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="I15" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="J15" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="K15" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="L15" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="M15" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="N15" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="O15" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="P15" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="R15" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="S15" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="T15" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="U15" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="V15" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="W15" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="X15" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="C16" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="D16" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="E16" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="F16" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="G16" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="H16" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="I16" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="J16" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="K16" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="L16" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="M16" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="N16" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="O16" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="P16" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="R16" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="S16" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="T16" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="U16" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="V16" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="W16" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="X16" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.548400863804033</v>
+        <v>0.5484008638040095</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>28.64833525071577</v>
+        <v>32.03998667168429</v>
       </c>
       <c r="C17" t="n">
-        <v>44.66996327975542</v>
+        <v>48.06161470072391</v>
       </c>
       <c r="D17" t="n">
-        <v>60.6915913087951</v>
+        <v>60.6915913087949</v>
       </c>
       <c r="E17" t="n">
         <v>50.33547293849503</v>
@@ -5513,52 +5513,52 @@
         <v>1.294677012447651</v>
       </c>
       <c r="J17" t="n">
-        <v>2.753072891993043</v>
+        <v>17.3163050414873</v>
       </c>
       <c r="K17" t="n">
-        <v>11.94833160194205</v>
+        <v>20.78002615107232</v>
       </c>
       <c r="L17" t="n">
-        <v>1.661380402337954</v>
+        <v>10.4930749514683</v>
       </c>
       <c r="M17" t="n">
-        <v>1.661380402337954</v>
+        <v>12.58353067181343</v>
       </c>
       <c r="N17" t="n">
-        <v>5.804743655898221</v>
+        <v>16.72689392537376</v>
       </c>
       <c r="O17" t="n">
-        <v>6.915148584373611</v>
+        <v>17.83729885384923</v>
       </c>
       <c r="P17" t="n">
-        <v>1.294677012447651</v>
+        <v>12.21682728192318</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.294677012447651</v>
+        <v>12.21682728192318</v>
       </c>
       <c r="R17" t="n">
-        <v>5.234460131215756</v>
+        <v>16.15661040069131</v>
       </c>
       <c r="S17" t="n">
-        <v>21.25608816025543</v>
+        <v>32.17823842973098</v>
       </c>
       <c r="T17" t="n">
-        <v>28.78658700876281</v>
+        <v>32.17823842973098</v>
       </c>
       <c r="U17" t="n">
-        <v>28.78658700876281</v>
+        <v>48.19986645877066</v>
       </c>
       <c r="V17" t="n">
-        <v>44.80821503780248</v>
+        <v>48.19986645877066</v>
       </c>
       <c r="W17" t="n">
-        <v>60.82984306684216</v>
+        <v>64.22149448781033</v>
       </c>
       <c r="X17" t="n">
-        <v>61.34219920141436</v>
+        <v>64.73385062238253</v>
       </c>
       <c r="Y17" t="n">
-        <v>44.9952672260649</v>
+        <v>48.38691864703341</v>
       </c>
     </row>
     <row r="18">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>32.78839985929349</v>
+        <v>33.25819589380195</v>
       </c>
       <c r="C20" t="n">
-        <v>52.6282386622039</v>
+        <v>53.09803469671154</v>
       </c>
       <c r="D20" t="n">
-        <v>72.61182731018897</v>
+        <v>73.08162334469667</v>
       </c>
       <c r="E20" t="n">
-        <v>62.78284477591637</v>
+        <v>63.25264081042401</v>
       </c>
       <c r="F20" t="n">
-        <v>42.39350833271153</v>
+        <v>42.8633043672191</v>
       </c>
       <c r="G20" t="n">
-        <v>22.00417188950668</v>
+        <v>22.47396792401327</v>
       </c>
       <c r="H20" t="n">
-        <v>1.614835446301824</v>
+        <v>2.084631480808358</v>
       </c>
       <c r="I20" t="n">
-        <v>9.835553087446815</v>
+        <v>10.30534912195334</v>
       </c>
       <c r="J20" t="n">
-        <v>9.835553087446815</v>
+        <v>11.80797745932641</v>
       </c>
       <c r="K20" t="n">
-        <v>18.41448667821869</v>
+        <v>11.80797745932641</v>
       </c>
       <c r="L20" t="n">
-        <v>8.654671314642043</v>
+        <v>2.048162095749735</v>
       </c>
       <c r="M20" t="n">
-        <v>8.654671314642043</v>
+        <v>2.048162095749735</v>
       </c>
       <c r="N20" t="n">
-        <v>8.654671314642043</v>
+        <v>6.708171182200509</v>
       </c>
       <c r="O20" t="n">
-        <v>8.654671314642043</v>
+        <v>6.708171182200509</v>
       </c>
       <c r="P20" t="n">
-        <v>3.56133557874348</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="Q20" t="n">
-        <v>3.56133557874348</v>
+        <v>4.031131613252018</v>
       </c>
       <c r="R20" t="n">
-        <v>8.017764530402108</v>
+        <v>8.487560564910574</v>
       </c>
       <c r="S20" t="n">
-        <v>28.00135317838718</v>
+        <v>28.4711492128957</v>
       </c>
       <c r="T20" t="n">
-        <v>28.00135317838718</v>
+        <v>48.45473786088083</v>
       </c>
       <c r="U20" t="n">
-        <v>47.98494182637225</v>
+        <v>68.43832650886593</v>
       </c>
       <c r="V20" t="n">
-        <v>67.96853047435732</v>
+        <v>68.43832650886593</v>
       </c>
       <c r="W20" t="n">
-        <v>67.96853047435732</v>
+        <v>68.43832650886593</v>
       </c>
       <c r="X20" t="n">
-        <v>68.99753244182003</v>
+        <v>69.4673284763286</v>
       </c>
       <c r="Y20" t="n">
-        <v>48.60819599861517</v>
+        <v>49.07799203312369</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="C21" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="D21" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="E21" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="F21" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="G21" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="H21" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="I21" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="J21" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="K21" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="L21" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="M21" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="N21" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="O21" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="P21" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="R21" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="S21" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="T21" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="U21" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="V21" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="W21" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="X21" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="C22" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="D22" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="E22" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="F22" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="G22" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="H22" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="I22" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="J22" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="K22" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="L22" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="M22" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="N22" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="O22" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="P22" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="R22" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="S22" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="T22" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="U22" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="V22" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="W22" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="X22" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.614835446301824</v>
+        <v>1.614835446301829</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>49.24163839479299</v>
+        <v>49.24163839479282</v>
       </c>
       <c r="C23" t="n">
-        <v>70.36610143550691</v>
+        <v>70.36610143550679</v>
       </c>
       <c r="D23" t="n">
-        <v>101.2580374266214</v>
+        <v>101.2580374266212</v>
       </c>
       <c r="E23" t="n">
-        <v>92.73976220568852</v>
+        <v>92.73976220568841</v>
       </c>
       <c r="F23" t="n">
-        <v>61.22059478285973</v>
+        <v>61.22059478285967</v>
       </c>
       <c r="G23" t="n">
-        <v>29.70142736003094</v>
+        <v>29.70142736003088</v>
       </c>
       <c r="H23" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="I23" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="J23" t="n">
-        <v>33.38825405100248</v>
+        <v>10.21759643957881</v>
       </c>
       <c r="K23" t="n">
-        <v>33.38825405100248</v>
+        <v>21.21412522022244</v>
       </c>
       <c r="L23" t="n">
-        <v>24.9391460007656</v>
+        <v>12.76501716998558</v>
       </c>
       <c r="M23" t="n">
-        <v>24.9391460007656</v>
+        <v>16.65674296102556</v>
       </c>
       <c r="N23" t="n">
-        <v>25.51305128445163</v>
+        <v>22.60137628528076</v>
       </c>
       <c r="O23" t="n">
-        <v>25.51305128445163</v>
+        <v>25.51305128445108</v>
       </c>
       <c r="P23" t="n">
-        <v>21.73042286189279</v>
+        <v>21.73042286189229</v>
       </c>
       <c r="Q23" t="n">
-        <v>25.43134326664735</v>
+        <v>25.43134326664688</v>
       </c>
       <c r="R23" t="n">
-        <v>31.17239645610987</v>
+        <v>31.17239645610982</v>
       </c>
       <c r="S23" t="n">
-        <v>31.17239645610987</v>
+        <v>62.06433244722193</v>
       </c>
       <c r="T23" t="n">
-        <v>62.06433244722436</v>
+        <v>62.06433244722193</v>
       </c>
       <c r="U23" t="n">
-        <v>92.95626843833885</v>
+        <v>62.06433244722193</v>
       </c>
       <c r="V23" t="n">
-        <v>92.95626843833885</v>
+        <v>92.95626843833637</v>
       </c>
       <c r="W23" t="n">
-        <v>92.95626843833885</v>
+        <v>92.95626843833637</v>
       </c>
       <c r="X23" t="n">
-        <v>95.26989464360584</v>
+        <v>95.26989464360345</v>
       </c>
       <c r="Y23" t="n">
-        <v>63.75072722077495</v>
+        <v>63.75072722077472</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="C24" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="D24" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="E24" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="F24" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="G24" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="H24" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="I24" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="J24" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="K24" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="L24" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="M24" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="N24" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="O24" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="P24" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="R24" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="S24" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="T24" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="U24" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="V24" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="W24" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="X24" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="C25" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="D25" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="E25" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="F25" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="G25" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="H25" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="I25" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="J25" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="K25" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="L25" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="M25" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="N25" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="O25" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="P25" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="R25" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="S25" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="T25" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="U25" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="V25" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="W25" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="X25" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888035</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>70.36610143550708</v>
+        <v>49.24163839479321</v>
       </c>
       <c r="C26" t="n">
-        <v>70.36610143550708</v>
+        <v>70.36610143550715</v>
       </c>
       <c r="D26" t="n">
-        <v>101.2580374266216</v>
+        <v>101.2580374266217</v>
       </c>
       <c r="E26" t="n">
-        <v>92.73976220568869</v>
+        <v>92.73976220568876</v>
       </c>
       <c r="F26" t="n">
-        <v>61.22059478285985</v>
+        <v>61.22059478285991</v>
       </c>
       <c r="G26" t="n">
         <v>29.701427360031</v>
@@ -6221,55 +6221,55 @@
         <v>2.496318059888044</v>
       </c>
       <c r="I26" t="n">
-        <v>12.00165993883743</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="J26" t="n">
-        <v>12.00165993883743</v>
+        <v>20.32514547002362</v>
       </c>
       <c r="K26" t="n">
-        <v>22.99818871948105</v>
+        <v>31.32167425066723</v>
       </c>
       <c r="L26" t="n">
-        <v>14.5490806692441</v>
+        <v>22.87256620043039</v>
       </c>
       <c r="M26" t="n">
-        <v>14.5490806692441</v>
+        <v>26.76429199147026</v>
       </c>
       <c r="N26" t="n">
-        <v>16.5348237396339</v>
+        <v>32.70892531572272</v>
       </c>
       <c r="O26" t="n">
-        <v>19.44649873880394</v>
+        <v>35.62060031489293</v>
       </c>
       <c r="P26" t="n">
-        <v>15.66387031624504</v>
+        <v>31.83797189233411</v>
       </c>
       <c r="Q26" t="n">
-        <v>15.66387031624504</v>
+        <v>35.53889229708868</v>
       </c>
       <c r="R26" t="n">
-        <v>21.4049235057073</v>
+        <v>35.53889229708868</v>
       </c>
       <c r="S26" t="n">
-        <v>52.29685949682185</v>
+        <v>35.53889229708868</v>
       </c>
       <c r="T26" t="n">
-        <v>52.29685949682185</v>
+        <v>66.43082828820323</v>
       </c>
       <c r="U26" t="n">
-        <v>83.1887954879364</v>
+        <v>66.43082828820323</v>
       </c>
       <c r="V26" t="n">
-        <v>114.080731479051</v>
+        <v>66.43082828820323</v>
       </c>
       <c r="W26" t="n">
-        <v>114.080731479051</v>
+        <v>92.95626843833709</v>
       </c>
       <c r="X26" t="n">
-        <v>116.3943576843179</v>
+        <v>95.26989464360408</v>
       </c>
       <c r="Y26" t="n">
-        <v>84.8751902614891</v>
+        <v>63.75072722077523</v>
       </c>
     </row>
     <row r="27">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>57.02568908774465</v>
+        <v>58.77112378396271</v>
       </c>
       <c r="C29" t="n">
-        <v>70.36610143550696</v>
+        <v>79.89558682467612</v>
       </c>
       <c r="D29" t="n">
-        <v>101.2580374266215</v>
+        <v>101.2580374266214</v>
       </c>
       <c r="E29" t="n">
         <v>92.73976220568858</v>
       </c>
       <c r="F29" t="n">
-        <v>61.22059478285979</v>
+        <v>61.22059478285973</v>
       </c>
       <c r="G29" t="n">
-        <v>29.70142736003094</v>
+        <v>29.70142736003089</v>
       </c>
       <c r="H29" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="I29" t="n">
-        <v>2.49631805988804</v>
+        <v>12.00165993883741</v>
       </c>
       <c r="J29" t="n">
-        <v>33.38825405100246</v>
+        <v>42.89359592995186</v>
       </c>
       <c r="K29" t="n">
-        <v>44.38478283164614</v>
+        <v>42.89359592995186</v>
       </c>
       <c r="L29" t="n">
-        <v>35.93567478140925</v>
+        <v>34.44448787971505</v>
       </c>
       <c r="M29" t="n">
-        <v>39.82740057244915</v>
+        <v>34.44448787971505</v>
       </c>
       <c r="N29" t="n">
-        <v>39.82740057244915</v>
+        <v>34.44448787971505</v>
       </c>
       <c r="O29" t="n">
-        <v>42.73907557161941</v>
+        <v>37.35616287888536</v>
       </c>
       <c r="P29" t="n">
-        <v>38.95644714906057</v>
+        <v>33.57353445632666</v>
       </c>
       <c r="Q29" t="n">
-        <v>38.95644714906057</v>
+        <v>37.2744548610813</v>
       </c>
       <c r="R29" t="n">
-        <v>38.95644714906057</v>
+        <v>43.01550805054424</v>
       </c>
       <c r="S29" t="n">
-        <v>38.95644714906057</v>
+        <v>73.90744404165879</v>
       </c>
       <c r="T29" t="n">
-        <v>38.95644714906057</v>
+        <v>73.90744404165879</v>
       </c>
       <c r="U29" t="n">
-        <v>69.84838314017506</v>
+        <v>104.7993800327733</v>
       </c>
       <c r="V29" t="n">
-        <v>100.7403191312896</v>
+        <v>104.7993800327733</v>
       </c>
       <c r="W29" t="n">
-        <v>100.7403191312896</v>
+        <v>104.7993800327733</v>
       </c>
       <c r="X29" t="n">
-        <v>103.0539453365554</v>
+        <v>104.7993800327733</v>
       </c>
       <c r="Y29" t="n">
-        <v>71.53477791372661</v>
+        <v>73.28021260994461</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="C30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="D30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="E30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="F30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="G30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="H30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="I30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="J30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="K30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="L30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="M30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="N30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="O30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="P30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="R30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="S30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="T30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="U30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="V30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="W30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="X30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="Y30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="C31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="D31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="E31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="F31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="G31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="H31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="I31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="J31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="K31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="L31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="M31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="N31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="O31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="P31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="R31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="S31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="T31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="U31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="V31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="W31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="X31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>80.79141791759909</v>
+        <v>87.99249777015157</v>
       </c>
       <c r="C32" t="n">
-        <v>103.1390733948639</v>
+        <v>110.3401532474163</v>
       </c>
       <c r="D32" t="n">
-        <v>141.1554893639635</v>
+        <v>148.3565692165159</v>
       </c>
       <c r="E32" t="n">
-        <v>133.8852423407155</v>
+        <v>141.0863221932678</v>
       </c>
       <c r="F32" t="n">
-        <v>81.97673847468172</v>
+        <v>89.17781832723398</v>
       </c>
       <c r="G32" t="n">
-        <v>30.06823460864799</v>
+        <v>37.2693144612002</v>
       </c>
       <c r="H32" t="n">
-        <v>4.111153506189871</v>
+        <v>11.31223335874199</v>
       </c>
       <c r="I32" t="n">
-        <v>14.83968782169008</v>
+        <v>11.31223335874199</v>
       </c>
       <c r="J32" t="n">
-        <v>65.71521246078943</v>
+        <v>11.31223335874199</v>
       </c>
       <c r="K32" t="n">
-        <v>65.71521246078943</v>
+        <v>11.31223335874199</v>
       </c>
       <c r="L32" t="n">
-        <v>58.51413260823737</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="M32" t="n">
-        <v>63.62905083582818</v>
+        <v>6.645753731063905</v>
       </c>
       <c r="N32" t="n">
-        <v>70.79687659663409</v>
+        <v>6.645753731063905</v>
       </c>
       <c r="O32" t="n">
-        <v>74.93174403235524</v>
+        <v>6.645753731063905</v>
       </c>
       <c r="P32" t="n">
-        <v>72.3971438074813</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="Q32" t="n">
-        <v>77.32125664878674</v>
+        <v>9.035266347495224</v>
       </c>
       <c r="R32" t="n">
-        <v>84.28550227480055</v>
+        <v>9.035266347495224</v>
       </c>
       <c r="S32" t="n">
-        <v>84.28550227480055</v>
+        <v>9.035266347495224</v>
       </c>
       <c r="T32" t="n">
-        <v>84.28550227480055</v>
+        <v>16.45566912755731</v>
       </c>
       <c r="U32" t="n">
-        <v>93.03816654253784</v>
+        <v>67.33119376665702</v>
       </c>
       <c r="V32" t="n">
-        <v>93.03816654253784</v>
+        <v>103.7760650369068</v>
       </c>
       <c r="W32" t="n">
-        <v>120.7867991292226</v>
+        <v>131.5246976235928</v>
       </c>
       <c r="X32" t="n">
-        <v>124.3236177710401</v>
+        <v>131.5246976235928</v>
       </c>
       <c r="Y32" t="n">
-        <v>94.05247854589621</v>
+        <v>101.2535583984487</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="C33" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="D33" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="E33" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="F33" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="G33" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="H33" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="I33" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="J33" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="K33" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="L33" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="M33" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="N33" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="O33" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="P33" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="Q33" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="R33" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="S33" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="T33" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="U33" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="V33" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="W33" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="X33" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="Y33" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="C34" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="D34" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="E34" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="F34" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="G34" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="H34" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="I34" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="J34" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="K34" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="L34" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="M34" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="N34" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="O34" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="P34" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="Q34" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="R34" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="S34" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="T34" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="U34" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="V34" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="W34" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="X34" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.111153506189871</v>
+        <v>4.111153506189876</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>129.1962265400064</v>
+        <v>117.6990961272229</v>
       </c>
       <c r="C35" t="n">
-        <v>129.1962265400064</v>
+        <v>139.6800996224022</v>
       </c>
       <c r="D35" t="n">
-        <v>129.1962265400064</v>
+        <v>139.6800996224022</v>
       </c>
       <c r="E35" t="n">
-        <v>121.5518830142735</v>
+        <v>132.0357560966692</v>
       </c>
       <c r="F35" t="n">
-        <v>75.75508356769276</v>
+        <v>86.23895665008882</v>
       </c>
       <c r="G35" t="n">
-        <v>29.95828412111217</v>
+        <v>40.44215720350846</v>
       </c>
       <c r="H35" t="n">
-        <v>3.627106516169183</v>
+        <v>14.11097959856511</v>
       </c>
       <c r="I35" t="n">
-        <v>13.98898884958395</v>
+        <v>14.11097959856511</v>
       </c>
       <c r="J35" t="n">
-        <v>58.87443198717759</v>
+        <v>14.11097959856511</v>
       </c>
       <c r="K35" t="n">
-        <v>60.0064518223059</v>
+        <v>14.11097959856511</v>
       </c>
       <c r="L35" t="n">
-        <v>52.43127546726866</v>
+        <v>6.535803243528069</v>
       </c>
       <c r="M35" t="n">
-        <v>52.43127546726866</v>
+        <v>6.535803243528069</v>
       </c>
       <c r="N35" t="n">
-        <v>59.23244924598923</v>
+        <v>6.535803243528069</v>
       </c>
       <c r="O35" t="n">
-        <v>59.23244924598923</v>
+        <v>6.535803243528069</v>
       </c>
       <c r="P35" t="n">
-        <v>56.32375251863038</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="Q35" t="n">
-        <v>56.32375251863038</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="R35" t="n">
-        <v>56.32375251863038</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="S35" t="n">
-        <v>56.32375251863038</v>
+        <v>48.51254965376253</v>
       </c>
       <c r="T35" t="n">
-        <v>101.209195656224</v>
+        <v>81.01582655987605</v>
       </c>
       <c r="U35" t="n">
-        <v>146.0946387938176</v>
+        <v>125.9012696974694</v>
       </c>
       <c r="V35" t="n">
-        <v>146.0946387938176</v>
+        <v>161.9794889856339</v>
       </c>
       <c r="W35" t="n">
-        <v>173.4766193984173</v>
+        <v>161.9794889856339</v>
       </c>
       <c r="X35" t="n">
-        <v>173.4766193984173</v>
+        <v>161.9794889856339</v>
       </c>
       <c r="Y35" t="n">
-        <v>142.8313836707885</v>
+        <v>131.334253258005</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="C36" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="D36" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="E36" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="F36" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="G36" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="H36" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="I36" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="J36" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="K36" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="L36" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="M36" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="N36" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="O36" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="P36" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="R36" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="S36" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="T36" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="U36" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="V36" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="W36" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="X36" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="Y36" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="C37" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="D37" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="E37" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="F37" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="G37" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="H37" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="I37" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="J37" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="K37" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="L37" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="M37" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="N37" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="O37" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="P37" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="R37" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="S37" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="T37" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="U37" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="V37" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="W37" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="X37" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
       <c r="Y37" t="n">
-        <v>3.627106516169183</v>
+        <v>3.627106516169164</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>105.673989589568</v>
+        <v>90.00522909773387</v>
       </c>
       <c r="C38" t="n">
-        <v>127.6062468351807</v>
+        <v>90.00522909773387</v>
       </c>
       <c r="D38" t="n">
-        <v>127.6062468351807</v>
+        <v>127.6062468351814</v>
       </c>
       <c r="E38" t="n">
-        <v>119.9121673135631</v>
+        <v>119.9121673135638</v>
       </c>
       <c r="F38" t="n">
-        <v>74.92791677838838</v>
+        <v>74.92791677838868</v>
       </c>
       <c r="G38" t="n">
-        <v>29.94366624321365</v>
+        <v>29.94366624321357</v>
       </c>
       <c r="H38" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="I38" t="n">
-        <v>3.562752642385838</v>
+        <v>13.87588872623405</v>
       </c>
       <c r="J38" t="n">
-        <v>3.562752642385838</v>
+        <v>57.96495267575914</v>
       </c>
       <c r="K38" t="n">
-        <v>15.36707562792823</v>
+        <v>69.76927566130165</v>
       </c>
       <c r="L38" t="n">
-        <v>7.742163277006419</v>
+        <v>62.14436331037996</v>
       </c>
       <c r="M38" t="n">
-        <v>12.441683272945</v>
+        <v>62.14436331037996</v>
       </c>
       <c r="N38" t="n">
-        <v>12.441683272945</v>
+        <v>68.89679083953392</v>
       </c>
       <c r="O38" t="n">
-        <v>16.16115247701398</v>
+        <v>72.61626004360301</v>
       </c>
       <c r="P38" t="n">
-        <v>13.2027197537703</v>
+        <v>69.65782732035943</v>
       </c>
       <c r="Q38" t="n">
-        <v>17.71143436342359</v>
+        <v>69.65782732035943</v>
       </c>
       <c r="R38" t="n">
-        <v>17.71143436342359</v>
+        <v>76.20667471472125</v>
       </c>
       <c r="S38" t="n">
-        <v>25.84625350210128</v>
+        <v>98.35562090931846</v>
       </c>
       <c r="T38" t="n">
-        <v>69.93531745162603</v>
+        <v>98.35562090931846</v>
       </c>
       <c r="U38" t="n">
-        <v>114.0243814011508</v>
+        <v>98.35562090931846</v>
       </c>
       <c r="V38" t="n">
-        <v>150.0538544397485</v>
+        <v>134.3850939479163</v>
       </c>
       <c r="W38" t="n">
-        <v>150.0538544397485</v>
+        <v>134.3850939479163</v>
       </c>
       <c r="X38" t="n">
-        <v>150.0538544397485</v>
+        <v>134.3850939479163</v>
       </c>
       <c r="Y38" t="n">
-        <v>119.3588827162348</v>
+        <v>103.6901222244006</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="C39" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="D39" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="E39" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="F39" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="G39" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="H39" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="I39" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="J39" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="K39" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="L39" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="M39" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="N39" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="O39" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="P39" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="R39" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="S39" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="T39" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="U39" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="V39" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="W39" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="X39" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="Y39" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="C40" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="D40" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="E40" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="F40" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="G40" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="H40" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="I40" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="J40" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="K40" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="L40" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="M40" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="N40" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="O40" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="P40" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="R40" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="S40" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="T40" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="U40" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="V40" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="W40" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="X40" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
       <c r="Y40" t="n">
-        <v>3.562752642385838</v>
+        <v>3.562752642385866</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>95.29043836958851</v>
+        <v>95.2904383695886</v>
       </c>
       <c r="C41" t="n">
-        <v>95.29043836958851</v>
+        <v>95.2904383695886</v>
       </c>
       <c r="D41" t="n">
-        <v>109.1681348648989</v>
+        <v>109.168134864899</v>
       </c>
       <c r="E41" t="n">
-        <v>100.8972946096102</v>
+        <v>100.8972946096103</v>
       </c>
       <c r="F41" t="n">
-        <v>65.33572271892558</v>
+        <v>65.33572271892564</v>
       </c>
       <c r="G41" t="n">
-        <v>29.77415082824094</v>
+        <v>29.774150828241</v>
       </c>
       <c r="H41" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="I41" t="n">
-        <v>12.56432938251945</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="J41" t="n">
-        <v>12.56432938251945</v>
+        <v>37.67037310380222</v>
       </c>
       <c r="K41" t="n">
-        <v>23.80336917299098</v>
+        <v>48.9094128942736</v>
       </c>
       <c r="L41" t="n">
-        <v>15.60169608839827</v>
+        <v>40.70773980968089</v>
       </c>
       <c r="M41" t="n">
-        <v>15.60169608839827</v>
+        <v>44.84197661054861</v>
       </c>
       <c r="N41" t="n">
-        <v>21.78884042248124</v>
+        <v>51.02912094463148</v>
       </c>
       <c r="O41" t="n">
-        <v>24.94302643147878</v>
+        <v>54.18330695362954</v>
       </c>
       <c r="P41" t="n">
-        <v>21.40783297456414</v>
+        <v>50.64811349671481</v>
       </c>
       <c r="Q41" t="n">
-        <v>25.35126438914656</v>
+        <v>54.59154491129669</v>
       </c>
       <c r="R41" t="n">
-        <v>31.33482858843731</v>
+        <v>54.59154491129669</v>
       </c>
       <c r="S41" t="n">
-        <v>66.18872519849725</v>
+        <v>89.44544152135668</v>
       </c>
       <c r="T41" t="n">
-        <v>101.0426218085572</v>
+        <v>124.2993381314167</v>
       </c>
       <c r="U41" t="n">
-        <v>101.0426218085572</v>
+        <v>124.2993381314167</v>
       </c>
       <c r="V41" t="n">
-        <v>111.4997363120543</v>
+        <v>124.2993381314167</v>
       </c>
       <c r="W41" t="n">
-        <v>138.267687472016</v>
+        <v>138.2676874720163</v>
       </c>
       <c r="X41" t="n">
-        <v>140.8238246871109</v>
+        <v>140.8238246871111</v>
       </c>
       <c r="Y41" t="n">
-        <v>109.5520922299263</v>
+        <v>109.5520922299264</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="C42" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="D42" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="E42" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="F42" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="G42" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="H42" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="I42" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="J42" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="K42" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="L42" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="M42" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="N42" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="O42" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="P42" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="R42" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="S42" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="T42" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="U42" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="V42" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="W42" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="X42" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="Y42" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="C43" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="D43" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="E43" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="F43" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="G43" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="H43" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="I43" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="J43" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="K43" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="L43" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="M43" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="N43" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="O43" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="P43" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="R43" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="S43" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="T43" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="U43" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="V43" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="W43" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="X43" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.816476493742218</v>
+        <v>2.816476493742222</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>78.78764674559115</v>
+        <v>49.24163839479351</v>
       </c>
       <c r="C44" t="n">
-        <v>99.91210978630501</v>
+        <v>70.36610143550737</v>
       </c>
       <c r="D44" t="n">
-        <v>101.2580374266219</v>
+        <v>101.258037426622</v>
       </c>
       <c r="E44" t="n">
-        <v>92.73976220568888</v>
+        <v>92.73976220568899</v>
       </c>
       <c r="F44" t="n">
-        <v>61.22059478285998</v>
+        <v>61.22059478286009</v>
       </c>
       <c r="G44" t="n">
-        <v>29.70142736003107</v>
+        <v>29.70142736003119</v>
       </c>
       <c r="H44" t="n">
         <v>2.496318059888049</v>
       </c>
       <c r="I44" t="n">
-        <v>12.00165993883727</v>
+        <v>12.00165993883728</v>
       </c>
       <c r="J44" t="n">
-        <v>42.89359592995188</v>
+        <v>42.89359592995189</v>
       </c>
       <c r="K44" t="n">
         <v>53.89012471059539</v>
       </c>
       <c r="L44" t="n">
-        <v>45.44101666035831</v>
+        <v>45.44101666035824</v>
       </c>
       <c r="M44" t="n">
-        <v>49.33274245139808</v>
+        <v>45.44101666035824</v>
       </c>
       <c r="N44" t="n">
-        <v>55.27737577565295</v>
+        <v>51.38564998461317</v>
       </c>
       <c r="O44" t="n">
-        <v>55.27737577565295</v>
+        <v>54.29732498378326</v>
       </c>
       <c r="P44" t="n">
-        <v>51.494747353094</v>
+        <v>50.51469656122433</v>
       </c>
       <c r="Q44" t="n">
-        <v>55.19566775784839</v>
+        <v>54.21561696597873</v>
       </c>
       <c r="R44" t="n">
-        <v>60.93672094731119</v>
+        <v>54.21561696597873</v>
       </c>
       <c r="S44" t="n">
-        <v>60.93672094731119</v>
+        <v>54.21561696597873</v>
       </c>
       <c r="T44" t="n">
-        <v>67.39852685315401</v>
+        <v>54.21561696597873</v>
       </c>
       <c r="U44" t="n">
-        <v>98.29046284426863</v>
+        <v>54.21561696597873</v>
       </c>
       <c r="V44" t="n">
-        <v>98.29046284426863</v>
+        <v>85.10755295709333</v>
       </c>
       <c r="W44" t="n">
-        <v>124.8159029944024</v>
+        <v>95.26989464360423</v>
       </c>
       <c r="X44" t="n">
-        <v>124.8159029944024</v>
+        <v>95.26989464360423</v>
       </c>
       <c r="Y44" t="n">
-        <v>93.29673557157322</v>
+        <v>63.75072722077559</v>
       </c>
     </row>
     <row r="45">
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.42652565831526</v>
+        <v>14.44345796476539</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.495620189316696</v>
+        <v>6.49562018931629</v>
       </c>
       <c r="F11" t="n">
-        <v>50.68749446367451</v>
+        <v>51.40872447880492</v>
       </c>
       <c r="G11" t="n">
-        <v>80.56280637584234</v>
+        <v>80.56280637584193</v>
       </c>
       <c r="H11" t="n">
-        <v>27.73374824931609</v>
+        <v>24.99558592773422</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23285,7 +23285,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>6.42714469032768</v>
+        <v>6.427144690327274</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23297,7 +23297,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.807329858926337</v>
+        <v>1.807329858925932</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.26650346919365</v>
+        <v>29.26650346919325</v>
       </c>
     </row>
     <row r="12">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11.37714162003554</v>
+        <v>11.37714162003595</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,16 +23501,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>8.067341180774951</v>
+        <v>5.446236151037385</v>
       </c>
       <c r="F14" t="n">
-        <v>49.63811042539479</v>
+        <v>49.6381104253952</v>
       </c>
       <c r="G14" t="n">
-        <v>79.51342233756263</v>
+        <v>82.13452736730108</v>
       </c>
       <c r="H14" t="n">
-        <v>23.9462018894549</v>
+        <v>23.94620188945531</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23522,7 +23522,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>5.377760652047963</v>
+        <v>5.377760652048369</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23534,7 +23534,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0.7579458206466185</v>
+        <v>0.7579458206470271</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>28.21711943091393</v>
+        <v>28.21711943091434</v>
       </c>
     </row>
     <row r="15">
@@ -24689,10 +24689,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>21.42099099448086</v>
+        <v>21.42099099448075</v>
       </c>
       <c r="G29" t="n">
-        <v>51.29630290664869</v>
+        <v>51.29630290664858</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -25163,10 +25163,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>6.420942912718658</v>
+        <v>6.420942912718949</v>
       </c>
       <c r="G35" t="n">
-        <v>36.29625482488649</v>
+        <v>36.29625482488678</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25400,10 +25400,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>7.274604970936444</v>
+        <v>7.274604970935982</v>
       </c>
       <c r="G38" t="n">
-        <v>37.14991688310428</v>
+        <v>37.14991688310381</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1400250.536796621</v>
+        <v>1400250.53679662</v>
       </c>
     </row>
     <row r="7">
@@ -26320,13 +26320,13 @@
         <v>324022.152574333</v>
       </c>
       <c r="E2" t="n">
-        <v>319135.1767924919</v>
+        <v>319135.176792492</v>
       </c>
       <c r="F2" t="n">
-        <v>319355.3855851942</v>
+        <v>319355.385585194</v>
       </c>
       <c r="G2" t="n">
-        <v>321194.4516965411</v>
+        <v>321194.4516965412</v>
       </c>
       <c r="H2" t="n">
         <v>321662.5791668805</v>
@@ -26335,22 +26335,22 @@
         <v>322826.5639636132</v>
       </c>
       <c r="J2" t="n">
-        <v>322826.5639636134</v>
+        <v>322826.5639636132</v>
       </c>
       <c r="K2" t="n">
-        <v>322826.5639636132</v>
+        <v>322826.5639636133</v>
       </c>
       <c r="L2" t="n">
-        <v>323934.8860376677</v>
+        <v>323934.8860376675</v>
       </c>
       <c r="M2" t="n">
-        <v>323602.6664513635</v>
+        <v>323602.6664513636</v>
       </c>
       <c r="N2" t="n">
         <v>323558.4979764714</v>
       </c>
       <c r="O2" t="n">
-        <v>323046.3006929797</v>
+        <v>323046.3006929794</v>
       </c>
       <c r="P2" t="n">
         <v>322826.5639636131</v>
@@ -26372,34 +26372,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>312755.7054474562</v>
+        <v>312755.7054474563</v>
       </c>
       <c r="F3" t="n">
-        <v>426.4567182859087</v>
+        <v>426.4567182855593</v>
       </c>
       <c r="G3" t="n">
-        <v>4195.740537104595</v>
+        <v>4195.740537104766</v>
       </c>
       <c r="H3" t="n">
-        <v>1497.261918130736</v>
+        <v>1497.261918130706</v>
       </c>
       <c r="I3" t="n">
-        <v>3968.139418258332</v>
+        <v>3968.139418258392</v>
       </c>
       <c r="J3" t="n">
-        <v>271754.0163456362</v>
+        <v>271754.0163456363</v>
       </c>
       <c r="K3" t="n">
-        <v>195.9684927902744</v>
+        <v>195.9684927902007</v>
       </c>
       <c r="L3" t="n">
         <v>7736.144116408339</v>
       </c>
       <c r="M3" t="n">
-        <v>121.2071521656981</v>
+        <v>121.2071521656526</v>
       </c>
       <c r="N3" t="n">
-        <v>998.6892834243008</v>
+        <v>998.6892834245282</v>
       </c>
       <c r="O3" t="n">
         <v>271297.2218445688</v>
@@ -26424,16 +26424,16 @@
         <v>569049.7736743361</v>
       </c>
       <c r="E4" t="n">
-        <v>543505.2814159455</v>
+        <v>543505.2814159456</v>
       </c>
       <c r="F4" t="n">
-        <v>543897.8986366659</v>
+        <v>543897.8986366658</v>
       </c>
       <c r="G4" t="n">
         <v>547182.097941085</v>
       </c>
       <c r="H4" t="n">
-        <v>548018.7635266201</v>
+        <v>548018.7635266202</v>
       </c>
       <c r="I4" t="n">
         <v>550099.1072005483</v>
@@ -26451,7 +26451,7 @@
         <v>551486.2042702378</v>
       </c>
       <c r="N4" t="n">
-        <v>551407.2637139807</v>
+        <v>551407.2637139808</v>
       </c>
       <c r="O4" t="n">
         <v>550491.8339063867</v>
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>29989.02910052525</v>
+        <v>29989.02910052528</v>
       </c>
       <c r="F5" t="n">
-        <v>30058.53163862609</v>
+        <v>30058.53163862606</v>
       </c>
       <c r="G5" t="n">
         <v>30797.932811196</v>
@@ -26500,10 +26500,10 @@
         <v>33195.28680353265</v>
       </c>
       <c r="M5" t="n">
-        <v>32796.2756714382</v>
+        <v>32796.27567143818</v>
       </c>
       <c r="N5" t="n">
-        <v>32743.2272844792</v>
+        <v>32743.22728447922</v>
       </c>
       <c r="O5" t="n">
         <v>32128.05459037225</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-278655.2211000032</v>
+        <v>-278660.4950060223</v>
       </c>
       <c r="C6" t="n">
-        <v>-278655.2211000031</v>
+        <v>-278660.4950060223</v>
       </c>
       <c r="D6" t="n">
-        <v>-278655.2211000031</v>
+        <v>-278660.4950060223</v>
       </c>
       <c r="E6" t="n">
-        <v>-567114.8391714351</v>
+        <v>-567157.7051988533</v>
       </c>
       <c r="F6" t="n">
-        <v>-255027.5014083837</v>
+        <v>-255068.6735220114</v>
       </c>
       <c r="G6" t="n">
-        <v>-260981.3195928445</v>
+        <v>-261008.3450440776</v>
       </c>
       <c r="H6" t="n">
-        <v>-258938.5721235686</v>
+        <v>-258961.9965942605</v>
       </c>
       <c r="I6" t="n">
-        <v>-263104.823241811</v>
+        <v>-263119.2939832975</v>
       </c>
       <c r="J6" t="n">
-        <v>-530890.7001691888</v>
+        <v>-530905.1709106752</v>
       </c>
       <c r="K6" t="n">
-        <v>-259332.652316343</v>
+        <v>-259347.1230578291</v>
       </c>
       <c r="L6" t="n">
-        <v>-269076.5119891588</v>
+        <v>-269082.4571762295</v>
       </c>
       <c r="M6" t="n">
-        <v>-260801.0206424782</v>
+        <v>-260809.5213648278</v>
       </c>
       <c r="N6" t="n">
-        <v>-261590.6823054127</v>
+        <v>-261599.5227852621</v>
       </c>
       <c r="O6" t="n">
-        <v>-530870.8096483483</v>
+        <v>-530883.5901073011</v>
       </c>
       <c r="P6" t="n">
-        <v>-259136.6838235528</v>
+        <v>-259151.1545650391</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>339.6925204320453</v>
+        <v>339.6925204320455</v>
       </c>
       <c r="F2" t="n">
-        <v>339.9374810480332</v>
+        <v>339.9374810480331</v>
       </c>
       <c r="G2" t="n">
         <v>341.9861708100236</v>
@@ -26704,22 +26704,22 @@
         <v>342.5080352876907</v>
       </c>
       <c r="I2" t="n">
-        <v>343.8056355278971</v>
+        <v>343.8056355278972</v>
       </c>
       <c r="J2" t="n">
         <v>343.805635527897</v>
       </c>
       <c r="K2" t="n">
-        <v>343.8056355278971</v>
+        <v>343.8056355278972</v>
       </c>
       <c r="L2" t="n">
-        <v>345.0411834436051</v>
+        <v>345.041183443605</v>
       </c>
       <c r="M2" t="n">
         <v>344.670827906145</v>
       </c>
       <c r="N2" t="n">
-        <v>344.621589270219</v>
+        <v>344.6215892702191</v>
       </c>
       <c r="O2" t="n">
         <v>344.0505961438848</v>
@@ -26796,37 +26796,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>6.050587375258601</v>
+        <v>6.050587375258893</v>
       </c>
       <c r="F4" t="n">
-        <v>6.855010797550412</v>
+        <v>6.855010797550119</v>
       </c>
       <c r="G4" t="n">
         <v>16.18346265559563</v>
       </c>
       <c r="H4" t="n">
-        <v>20.1854430787728</v>
+        <v>20.18544307877286</v>
       </c>
       <c r="I4" t="n">
-        <v>31.2039757486005</v>
+        <v>31.20397574860044</v>
       </c>
       <c r="J4" t="n">
         <v>31.20397574860056</v>
       </c>
       <c r="K4" t="n">
-        <v>31.2039757486005</v>
+        <v>31.20397574860056</v>
       </c>
       <c r="L4" t="n">
-        <v>51.38941882737339</v>
+        <v>51.38941882737345</v>
       </c>
       <c r="M4" t="n">
-        <v>45.33883145211479</v>
+        <v>45.33883145211455</v>
       </c>
       <c r="N4" t="n">
-        <v>44.53440802982298</v>
+        <v>44.53440802982333</v>
       </c>
       <c r="O4" t="n">
-        <v>35.20595617177772</v>
+        <v>35.20595617177778</v>
       </c>
       <c r="P4" t="n">
         <v>31.20397574860061</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>339.6925204320453</v>
+        <v>339.6925204320455</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2449606159879067</v>
+        <v>0.2449606159876794</v>
       </c>
       <c r="G2" t="n">
-        <v>2.048689761990317</v>
+        <v>2.048689761990431</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5218644776671795</v>
+        <v>0.5218644776671226</v>
       </c>
       <c r="I2" t="n">
-        <v>1.29760024020635</v>
+        <v>1.297600240206464</v>
       </c>
       <c r="J2" t="n">
         <v>339.6925204320453</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2449606159878431</v>
+        <v>0.2449606159877509</v>
       </c>
       <c r="L2" t="n">
         <v>3.284237677698286</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1515089402071226</v>
+        <v>0.1515089402070657</v>
       </c>
       <c r="N2" t="n">
-        <v>1.248361604280376</v>
+        <v>1.24836160428066</v>
       </c>
       <c r="O2" t="n">
-        <v>339.1215273057111</v>
+        <v>339.121527305711</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,19 +27018,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>6.050587375258601</v>
+        <v>6.050587375258893</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8044234222918103</v>
+        <v>0.8044234222912259</v>
       </c>
       <c r="G4" t="n">
-        <v>9.328451858045279</v>
+        <v>9.328451858045572</v>
       </c>
       <c r="H4" t="n">
-        <v>4.001980423177109</v>
+        <v>4.001980423177166</v>
       </c>
       <c r="I4" t="n">
-        <v>11.0185326698277</v>
+        <v>11.01853266982759</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>339.6925204320453</v>
+        <v>339.6925204320455</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2449606159879067</v>
+        <v>0.2449606159876794</v>
       </c>
       <c r="L2" t="n">
-        <v>2.048689761990317</v>
+        <v>2.048689761990431</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5218644776671795</v>
+        <v>0.5218644776671226</v>
       </c>
       <c r="N2" t="n">
-        <v>1.29760024020635</v>
+        <v>1.297600240206464</v>
       </c>
       <c r="O2" t="n">
         <v>339.6925204320453</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2449606159878431</v>
+        <v>0.2449606159877509</v>
       </c>
     </row>
     <row r="3">
@@ -27264,16 +27264,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>6.050587375258601</v>
+        <v>6.050587375258893</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8044234222918103</v>
+        <v>0.8044234222912259</v>
       </c>
       <c r="O4" t="n">
-        <v>9.328451858045279</v>
+        <v>9.328451858045572</v>
       </c>
       <c r="P4" t="n">
-        <v>4.001980423177109</v>
+        <v>4.001980423177166</v>
       </c>
     </row>
   </sheetData>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>339.6925204320453</v>
+        <v>339.6925204320455</v>
       </c>
       <c r="C11" t="n">
-        <v>328.5183814478891</v>
+        <v>328.5183814478893</v>
       </c>
       <c r="D11" t="n">
-        <v>312.691350648056</v>
+        <v>312.6913506480563</v>
       </c>
       <c r="E11" t="n">
-        <v>339.6925204320453</v>
+        <v>339.6925204320455</v>
       </c>
       <c r="F11" t="n">
-        <v>339.6925204320453</v>
+        <v>339.6925204320455</v>
       </c>
       <c r="G11" t="n">
-        <v>339.6925204320453</v>
+        <v>339.6925204320455</v>
       </c>
       <c r="H11" t="n">
-        <v>339.6925204320453</v>
+        <v>339.6925204320455</v>
       </c>
       <c r="I11" t="n">
-        <v>339.6925204320453</v>
+        <v>339.6925204320455</v>
       </c>
       <c r="J11" t="n">
-        <v>283.6042234127062</v>
+        <v>283.6042234127065</v>
       </c>
       <c r="K11" t="n">
-        <v>333.3785394856575</v>
+        <v>335.2701045153158</v>
       </c>
       <c r="L11" t="n">
-        <v>339.6925204320453</v>
+        <v>339.6925204320455</v>
       </c>
       <c r="M11" t="n">
-        <v>339.6925204320453</v>
+        <v>339.6925204320455</v>
       </c>
       <c r="N11" t="n">
-        <v>339.6925204320453</v>
+        <v>337.8009554023869</v>
       </c>
       <c r="O11" t="n">
-        <v>339.6925204320453</v>
+        <v>339.6925204320455</v>
       </c>
       <c r="P11" t="n">
-        <v>339.6925204320453</v>
+        <v>339.6925204320455</v>
       </c>
       <c r="Q11" t="n">
-        <v>339.6925204320453</v>
+        <v>339.6925204320455</v>
       </c>
       <c r="R11" t="n">
-        <v>339.6925204320453</v>
+        <v>338.006591902177</v>
       </c>
       <c r="S11" t="n">
-        <v>289.4793796928738</v>
+        <v>283.4287923176151</v>
       </c>
       <c r="T11" t="n">
-        <v>229.6258073588884</v>
+        <v>231.5562040655352</v>
       </c>
       <c r="U11" t="n">
-        <v>254.0777834762297</v>
+        <v>254.07778347623</v>
       </c>
       <c r="V11" t="n">
-        <v>314.278769535783</v>
+        <v>314.2787695357833</v>
       </c>
       <c r="W11" t="n">
-        <v>317.0122616388729</v>
+        <v>322.8183808373537</v>
       </c>
       <c r="X11" t="n">
-        <v>339.6925204320453</v>
+        <v>339.6925204320455</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.6925204320453</v>
+        <v>339.6925204320455</v>
       </c>
     </row>
     <row r="12">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>339.9374810480332</v>
+        <v>339.9374810480331</v>
       </c>
       <c r="C14" t="n">
-        <v>329.3228048701808</v>
+        <v>329.3228048701806</v>
       </c>
       <c r="D14" t="n">
-        <v>313.4957740703478</v>
+        <v>313.4957740703475</v>
       </c>
       <c r="E14" t="n">
-        <v>339.9374810480332</v>
+        <v>339.9374810480331</v>
       </c>
       <c r="F14" t="n">
-        <v>339.9374810480332</v>
+        <v>339.9374810480331</v>
       </c>
       <c r="G14" t="n">
-        <v>339.9374810480332</v>
+        <v>339.9374810480331</v>
       </c>
       <c r="H14" t="n">
-        <v>339.9374810480332</v>
+        <v>339.9374810480331</v>
       </c>
       <c r="I14" t="n">
-        <v>339.9374810480332</v>
+        <v>334.2042800946149</v>
       </c>
       <c r="J14" t="n">
-        <v>284.408646834998</v>
+        <v>284.4086468349977</v>
       </c>
       <c r="K14" t="n">
-        <v>332.9771816101948</v>
+        <v>338.7103825636134</v>
       </c>
       <c r="L14" t="n">
-        <v>339.9374810480332</v>
+        <v>339.9374810480331</v>
       </c>
       <c r="M14" t="n">
-        <v>339.9374810480332</v>
+        <v>339.9374810480331</v>
       </c>
       <c r="N14" t="n">
-        <v>339.9374810480332</v>
+        <v>339.9374810480331</v>
       </c>
       <c r="O14" t="n">
-        <v>339.9374810480332</v>
+        <v>339.9374810480331</v>
       </c>
       <c r="P14" t="n">
-        <v>339.9374810480332</v>
+        <v>339.9374810480331</v>
       </c>
       <c r="Q14" t="n">
-        <v>339.9374810480332</v>
+        <v>339.9374810480331</v>
       </c>
       <c r="R14" t="n">
-        <v>338.006591902177</v>
+        <v>339.9374810480331</v>
       </c>
       <c r="S14" t="n">
-        <v>290.2838031151656</v>
+        <v>290.2838031151653</v>
       </c>
       <c r="T14" t="n">
-        <v>232.3606274878267</v>
+        <v>230.1527682087358</v>
       </c>
       <c r="U14" t="n">
-        <v>254.6052367652871</v>
+        <v>248.0271961009711</v>
       </c>
       <c r="V14" t="n">
-        <v>308.2281821605244</v>
+        <v>315.0831929580745</v>
       </c>
       <c r="W14" t="n">
-        <v>323.8672724364233</v>
+        <v>323.867272436423</v>
       </c>
       <c r="X14" t="n">
-        <v>339.9374810480332</v>
+        <v>339.9374810480331</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.9374810480332</v>
+        <v>339.9374810480331</v>
       </c>
     </row>
     <row r="15">
@@ -28567,7 +28567,7 @@
         <v>338.6512567282261</v>
       </c>
       <c r="D17" t="n">
-        <v>322.824225928393</v>
+        <v>319.398315402162</v>
       </c>
       <c r="E17" t="n">
         <v>341.9861708100236</v>
@@ -28585,16 +28585,16 @@
         <v>334.2042800946149</v>
       </c>
       <c r="J17" t="n">
-        <v>279.0267631885036</v>
+        <v>293.7370986930433</v>
       </c>
       <c r="K17" t="n">
-        <v>341.9861708100236</v>
+        <v>336.1967388904641</v>
       </c>
       <c r="L17" t="n">
         <v>341.9861708100236</v>
       </c>
       <c r="M17" t="n">
-        <v>339.8745993753315</v>
+        <v>341.9861708100236</v>
       </c>
       <c r="N17" t="n">
         <v>341.9861708100236</v>
@@ -28615,13 +28615,13 @@
         <v>299.6122549732108</v>
       </c>
       <c r="T17" t="n">
-        <v>233.1121811837181</v>
+        <v>225.5056166902763</v>
       </c>
       <c r="U17" t="n">
-        <v>248.0271961009711</v>
+        <v>264.2106587565668</v>
       </c>
       <c r="V17" t="n">
-        <v>324.41164481612</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W17" t="n">
         <v>333.1957242944686</v>
@@ -28822,10 +28822,10 @@
         <v>342.5080352876907</v>
       </c>
       <c r="J20" t="n">
-        <v>277.5536360374476</v>
+        <v>279.0714424388348</v>
       </c>
       <c r="K20" t="n">
-        <v>341.3636201845923</v>
+        <v>332.6980306989641</v>
       </c>
       <c r="L20" t="n">
         <v>342.5080352876907</v>
@@ -28834,7 +28834,7 @@
         <v>339.8745993753315</v>
       </c>
       <c r="N20" t="n">
-        <v>337.8009554023869</v>
+        <v>342.5080352876907</v>
       </c>
       <c r="O20" t="n">
         <v>340.8645496701494</v>
@@ -28843,7 +28843,7 @@
         <v>342.5080352876907</v>
       </c>
       <c r="Q20" t="n">
-        <v>340.0673320887511</v>
+        <v>342.5080352876907</v>
       </c>
       <c r="R20" t="n">
         <v>342.5080352876907</v>
@@ -28852,13 +28852,13 @@
         <v>303.614235396388</v>
       </c>
       <c r="T20" t="n">
-        <v>225.5056166902763</v>
+        <v>245.6910597690491</v>
       </c>
       <c r="U20" t="n">
-        <v>268.2126391797439</v>
+        <v>268.212639179744</v>
       </c>
       <c r="V20" t="n">
-        <v>328.4136252392972</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W20" t="n">
         <v>317.0122616388729</v>
@@ -29035,76 +29035,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>343.8056355278971</v>
+        <v>343.8056355278972</v>
       </c>
       <c r="C23" t="n">
-        <v>343.8056355278971</v>
+        <v>343.8056355278972</v>
       </c>
       <c r="D23" t="n">
         <v>337.8447390213979</v>
       </c>
       <c r="E23" t="n">
-        <v>343.8056355278971</v>
+        <v>343.8056355278972</v>
       </c>
       <c r="F23" t="n">
-        <v>343.8056355278971</v>
+        <v>343.8056355278972</v>
       </c>
       <c r="G23" t="n">
-        <v>343.8056355278971</v>
+        <v>343.8056355278972</v>
       </c>
       <c r="H23" t="n">
-        <v>343.8056355278971</v>
+        <v>343.8056355278972</v>
       </c>
       <c r="I23" t="n">
         <v>334.2042800946149</v>
       </c>
       <c r="J23" t="n">
-        <v>308.7576117860481</v>
+        <v>285.3529071280444</v>
       </c>
       <c r="K23" t="n">
-        <v>332.6980306989641</v>
+        <v>343.8056355278972</v>
       </c>
       <c r="L23" t="n">
-        <v>343.8056355278971</v>
+        <v>343.8056355278972</v>
       </c>
       <c r="M23" t="n">
-        <v>339.8745993753315</v>
+        <v>343.8056355278972</v>
       </c>
       <c r="N23" t="n">
-        <v>338.3806577091405</v>
+        <v>343.8056355278972</v>
       </c>
       <c r="O23" t="n">
-        <v>340.8645496701494</v>
+        <v>343.8056355278972</v>
       </c>
       <c r="P23" t="n">
-        <v>343.8056355278971</v>
+        <v>343.8056355278972</v>
       </c>
       <c r="Q23" t="n">
-        <v>343.8056355278971</v>
+        <v>343.8056355278972</v>
       </c>
       <c r="R23" t="n">
-        <v>343.8056355278971</v>
+        <v>343.8056355278972</v>
       </c>
       <c r="S23" t="n">
-        <v>283.4287923176152</v>
+        <v>314.6327680662156</v>
       </c>
       <c r="T23" t="n">
-        <v>256.7095924388768</v>
+        <v>225.5056166902763</v>
       </c>
       <c r="U23" t="n">
-        <v>279.2311718495716</v>
+        <v>248.0271961009711</v>
       </c>
       <c r="V23" t="n">
-        <v>308.2281821605244</v>
+        <v>339.4321579091248</v>
       </c>
       <c r="W23" t="n">
         <v>317.0122616388729</v>
       </c>
       <c r="X23" t="n">
-        <v>343.8056355278971</v>
+        <v>343.8056355278972</v>
       </c>
       <c r="Y23" t="n">
-        <v>343.8056355278971</v>
+        <v>343.8056355278972</v>
       </c>
     </row>
     <row r="24">
@@ -29275,7 +29275,7 @@
         <v>343.805635527897</v>
       </c>
       <c r="C26" t="n">
-        <v>322.4677940726305</v>
+        <v>343.805635527897</v>
       </c>
       <c r="D26" t="n">
         <v>337.844739021398</v>
@@ -29293,10 +29293,10 @@
         <v>343.805635527897</v>
       </c>
       <c r="I26" t="n">
-        <v>343.805635527897</v>
+        <v>334.2042800946149</v>
       </c>
       <c r="J26" t="n">
-        <v>277.5536360374476</v>
+        <v>295.5625526133422</v>
       </c>
       <c r="K26" t="n">
         <v>343.805635527897</v>
@@ -29305,10 +29305,10 @@
         <v>343.805635527897</v>
       </c>
       <c r="M26" t="n">
-        <v>339.8745993753315</v>
+        <v>343.805635527897</v>
       </c>
       <c r="N26" t="n">
-        <v>339.8067564835887</v>
+        <v>343.805635527897</v>
       </c>
       <c r="O26" t="n">
         <v>343.805635527897</v>
@@ -29317,25 +29317,25 @@
         <v>343.805635527897</v>
       </c>
       <c r="Q26" t="n">
-        <v>340.0673320887511</v>
+        <v>343.805635527897</v>
       </c>
       <c r="R26" t="n">
+        <v>338.006591902177</v>
+      </c>
+      <c r="S26" t="n">
+        <v>283.4287923176152</v>
+      </c>
+      <c r="T26" t="n">
+        <v>256.7095924388768</v>
+      </c>
+      <c r="U26" t="n">
+        <v>248.0271961009711</v>
+      </c>
+      <c r="V26" t="n">
+        <v>308.2281821605244</v>
+      </c>
+      <c r="W26" t="n">
         <v>343.805635527897</v>
-      </c>
-      <c r="S26" t="n">
-        <v>314.6327680662158</v>
-      </c>
-      <c r="T26" t="n">
-        <v>225.5056166902763</v>
-      </c>
-      <c r="U26" t="n">
-        <v>279.2311718495716</v>
-      </c>
-      <c r="V26" t="n">
-        <v>339.432157909125</v>
-      </c>
-      <c r="W26" t="n">
-        <v>317.0122616388729</v>
       </c>
       <c r="X26" t="n">
         <v>343.805635527897</v>
@@ -29448,7 +29448,7 @@
         <v>170.4377646441027</v>
       </c>
       <c r="H28" t="n">
-        <v>176.2725034812817</v>
+        <v>176.2725034812816</v>
       </c>
       <c r="I28" t="n">
         <v>195.1030172673239</v>
@@ -29509,58 +29509,58 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>343.8056355278971</v>
+        <v>343.8056355278972</v>
       </c>
       <c r="C29" t="n">
-        <v>335.9429580602692</v>
+        <v>343.8056355278972</v>
       </c>
       <c r="D29" t="n">
-        <v>337.8447390213979</v>
+        <v>328.2189962040553</v>
       </c>
       <c r="E29" t="n">
-        <v>343.8056355278971</v>
+        <v>343.8056355278972</v>
       </c>
       <c r="F29" t="n">
-        <v>343.8056355278971</v>
+        <v>343.8056355278972</v>
       </c>
       <c r="G29" t="n">
-        <v>343.8056355278971</v>
+        <v>343.8056355278972</v>
       </c>
       <c r="H29" t="n">
-        <v>343.8056355278971</v>
+        <v>343.8056355278972</v>
       </c>
       <c r="I29" t="n">
-        <v>334.2042800946149</v>
+        <v>343.8056355278972</v>
       </c>
       <c r="J29" t="n">
-        <v>308.7576117860481</v>
+        <v>308.7576117860482</v>
       </c>
       <c r="K29" t="n">
-        <v>343.8056355278971</v>
+        <v>332.6980306989641</v>
       </c>
       <c r="L29" t="n">
-        <v>343.8056355278971</v>
+        <v>343.8056355278972</v>
       </c>
       <c r="M29" t="n">
-        <v>343.8056355278971</v>
+        <v>339.8745993753315</v>
       </c>
       <c r="N29" t="n">
         <v>337.8009554023869</v>
       </c>
       <c r="O29" t="n">
-        <v>343.8056355278971</v>
+        <v>343.8056355278972</v>
       </c>
       <c r="P29" t="n">
-        <v>343.8056355278971</v>
+        <v>343.8056355278972</v>
       </c>
       <c r="Q29" t="n">
-        <v>340.0673320887511</v>
+        <v>343.8056355278972</v>
       </c>
       <c r="R29" t="n">
-        <v>338.006591902177</v>
+        <v>343.8056355278972</v>
       </c>
       <c r="S29" t="n">
-        <v>283.4287923176152</v>
+        <v>314.6327680662158</v>
       </c>
       <c r="T29" t="n">
         <v>225.5056166902763</v>
@@ -29569,16 +29569,16 @@
         <v>279.2311718495716</v>
       </c>
       <c r="V29" t="n">
-        <v>339.4321579091249</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W29" t="n">
         <v>317.0122616388729</v>
       </c>
       <c r="X29" t="n">
-        <v>343.8056355278971</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y29" t="n">
-        <v>343.8056355278971</v>
+        <v>343.8056355278972</v>
       </c>
     </row>
     <row r="30">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>345.0411834436051</v>
+        <v>345.041183443605</v>
       </c>
       <c r="C32" t="n">
-        <v>345.0411834436051</v>
+        <v>345.041183443605</v>
       </c>
       <c r="D32" t="n">
-        <v>345.0411834436051</v>
+        <v>345.041183443605</v>
       </c>
       <c r="E32" t="n">
-        <v>345.0411834436051</v>
+        <v>345.041183443605</v>
       </c>
       <c r="F32" t="n">
-        <v>345.0411834436051</v>
+        <v>345.041183443605</v>
       </c>
       <c r="G32" t="n">
-        <v>345.0411834436051</v>
+        <v>345.041183443605</v>
       </c>
       <c r="H32" t="n">
-        <v>345.0411834436051</v>
+        <v>345.041183443605</v>
       </c>
       <c r="I32" t="n">
-        <v>345.0411834436051</v>
+        <v>334.2042800946149</v>
       </c>
       <c r="J32" t="n">
-        <v>328.943054864821</v>
+        <v>277.5536360374476</v>
       </c>
       <c r="K32" t="n">
         <v>332.6980306989641</v>
       </c>
       <c r="L32" t="n">
-        <v>345.0411834436051</v>
+        <v>345.041183443605</v>
       </c>
       <c r="M32" t="n">
-        <v>345.0411834436051</v>
+        <v>342.4348016226791</v>
       </c>
       <c r="N32" t="n">
-        <v>345.0411834436051</v>
+        <v>337.8009554023869</v>
       </c>
       <c r="O32" t="n">
-        <v>345.0411834436051</v>
+        <v>340.8645496701494</v>
       </c>
       <c r="P32" t="n">
-        <v>345.0411834436051</v>
+        <v>345.041183443605</v>
       </c>
       <c r="Q32" t="n">
-        <v>345.0411834436051</v>
+        <v>345.041183443605</v>
       </c>
       <c r="R32" t="n">
-        <v>345.0411834436051</v>
+        <v>338.006591902177</v>
       </c>
       <c r="S32" t="n">
         <v>283.4287923176152</v>
       </c>
       <c r="T32" t="n">
-        <v>225.5056166902763</v>
+        <v>233.0009730337733</v>
       </c>
       <c r="U32" t="n">
-        <v>256.8682711188875</v>
+        <v>299.4166149283445</v>
       </c>
       <c r="V32" t="n">
-        <v>308.2281821605244</v>
+        <v>345.041183443605</v>
       </c>
       <c r="W32" t="n">
-        <v>345.0411834436051</v>
+        <v>345.041183443605</v>
       </c>
       <c r="X32" t="n">
-        <v>345.0411834436051</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y32" t="n">
-        <v>345.0411834436051</v>
+        <v>345.041183443605</v>
       </c>
     </row>
     <row r="33">
@@ -29940,7 +29940,7 @@
         <v>211.9638514519344</v>
       </c>
       <c r="N34" t="n">
-        <v>194.0263706883593</v>
+        <v>194.0263706883592</v>
       </c>
       <c r="O34" t="n">
         <v>212.5569488139992</v>
@@ -29986,7 +29986,7 @@
         <v>344.670827906145</v>
       </c>
       <c r="C35" t="n">
-        <v>322.4677940726305</v>
+        <v>344.670827906145</v>
       </c>
       <c r="D35" t="n">
         <v>306.6407632727974</v>
@@ -30004,13 +30004,13 @@
         <v>344.670827906145</v>
       </c>
       <c r="I35" t="n">
-        <v>344.670827906145</v>
+        <v>334.2042800946149</v>
       </c>
       <c r="J35" t="n">
-        <v>322.8924674895624</v>
+        <v>277.5536360374476</v>
       </c>
       <c r="K35" t="n">
-        <v>333.8414850778815</v>
+        <v>332.6980306989641</v>
       </c>
       <c r="L35" t="n">
         <v>344.670827906145</v>
@@ -30019,7 +30019,7 @@
         <v>339.8745993753315</v>
       </c>
       <c r="N35" t="n">
-        <v>344.670827906145</v>
+        <v>337.8009554023869</v>
       </c>
       <c r="O35" t="n">
         <v>340.8645496701494</v>
@@ -30034,19 +30034,19 @@
         <v>338.006591902177</v>
       </c>
       <c r="S35" t="n">
-        <v>283.4287923176152</v>
+        <v>328.7676237697298</v>
       </c>
       <c r="T35" t="n">
-        <v>270.8444481423911</v>
+        <v>258.3372095247344</v>
       </c>
       <c r="U35" t="n">
-        <v>293.3660275530859</v>
+        <v>293.3660275530856</v>
       </c>
       <c r="V35" t="n">
-        <v>308.2281821605244</v>
+        <v>344.670827906145</v>
       </c>
       <c r="W35" t="n">
-        <v>344.670827906145</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X35" t="n">
         <v>341.4686393609607</v>
@@ -30220,67 +30220,67 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>344.621589270219</v>
+        <v>344.6215892702191</v>
       </c>
       <c r="C38" t="n">
-        <v>344.621589270219</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D38" t="n">
-        <v>306.6407632727974</v>
+        <v>344.6215892702191</v>
       </c>
       <c r="E38" t="n">
-        <v>344.621589270219</v>
+        <v>344.6215892702191</v>
       </c>
       <c r="F38" t="n">
-        <v>344.621589270219</v>
+        <v>344.6215892702191</v>
       </c>
       <c r="G38" t="n">
-        <v>344.621589270219</v>
+        <v>344.6215892702191</v>
       </c>
       <c r="H38" t="n">
-        <v>344.621589270219</v>
+        <v>344.6215892702191</v>
       </c>
       <c r="I38" t="n">
-        <v>334.2042800946149</v>
+        <v>344.6215892702191</v>
       </c>
       <c r="J38" t="n">
-        <v>277.5536360374476</v>
+        <v>322.088044067271</v>
       </c>
       <c r="K38" t="n">
-        <v>344.621589270219</v>
+        <v>344.6215892702191</v>
       </c>
       <c r="L38" t="n">
-        <v>344.621589270219</v>
+        <v>344.6215892702191</v>
       </c>
       <c r="M38" t="n">
-        <v>344.621589270219</v>
+        <v>339.8745993753315</v>
       </c>
       <c r="N38" t="n">
-        <v>337.8009554023869</v>
+        <v>344.6215892702191</v>
       </c>
       <c r="O38" t="n">
-        <v>344.621589270219</v>
+        <v>344.6215892702191</v>
       </c>
       <c r="P38" t="n">
-        <v>344.621589270219</v>
+        <v>344.6215892702191</v>
       </c>
       <c r="Q38" t="n">
-        <v>344.621589270219</v>
+        <v>340.0673320887511</v>
       </c>
       <c r="R38" t="n">
-        <v>338.006591902177</v>
+        <v>344.6215892702191</v>
       </c>
       <c r="S38" t="n">
-        <v>291.6457813465826</v>
+        <v>305.8014652414507</v>
       </c>
       <c r="T38" t="n">
-        <v>270.0400247200993</v>
+        <v>225.5056166902763</v>
       </c>
       <c r="U38" t="n">
-        <v>292.5616041307941</v>
+        <v>248.0271961009711</v>
       </c>
       <c r="V38" t="n">
-        <v>344.621589270219</v>
+        <v>344.6215892702191</v>
       </c>
       <c r="W38" t="n">
         <v>317.0122616388729</v>
@@ -30289,7 +30289,7 @@
         <v>341.4686393609607</v>
       </c>
       <c r="Y38" t="n">
-        <v>344.621589270219</v>
+        <v>344.6215892702191</v>
       </c>
     </row>
     <row r="39">
@@ -30478,10 +30478,10 @@
         <v>344.0505961438848</v>
       </c>
       <c r="I41" t="n">
-        <v>344.0505961438848</v>
+        <v>334.2042800946149</v>
       </c>
       <c r="J41" t="n">
-        <v>277.5536360374476</v>
+        <v>312.7595922092254</v>
       </c>
       <c r="K41" t="n">
         <v>344.0505961438848</v>
@@ -30490,7 +30490,7 @@
         <v>344.0505961438848</v>
       </c>
       <c r="M41" t="n">
-        <v>339.8745993753315</v>
+        <v>344.0505961438848</v>
       </c>
       <c r="N41" t="n">
         <v>344.0505961438848</v>
@@ -30505,10 +30505,10 @@
         <v>344.0505961438848</v>
       </c>
       <c r="R41" t="n">
-        <v>344.0505961438848</v>
+        <v>338.006591902177</v>
       </c>
       <c r="S41" t="n">
-        <v>318.6347484893929</v>
+        <v>318.634748489393</v>
       </c>
       <c r="T41" t="n">
         <v>260.711572862054</v>
@@ -30517,10 +30517,10 @@
         <v>248.0271961009711</v>
       </c>
       <c r="V41" t="n">
-        <v>318.7909240832487</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W41" t="n">
-        <v>344.0505961438848</v>
+        <v>331.1217054172565</v>
       </c>
       <c r="X41" t="n">
         <v>344.0505961438848</v>
@@ -30700,7 +30700,7 @@
         <v>343.805635527897</v>
       </c>
       <c r="D44" t="n">
-        <v>308.0002861418043</v>
+        <v>337.844739021398</v>
       </c>
       <c r="E44" t="n">
         <v>343.805635527897</v>
@@ -30727,13 +30727,13 @@
         <v>343.805635527897</v>
       </c>
       <c r="M44" t="n">
-        <v>343.805635527897</v>
+        <v>339.8745993753316</v>
       </c>
       <c r="N44" t="n">
         <v>343.805635527897</v>
       </c>
       <c r="O44" t="n">
-        <v>340.8645496701494</v>
+        <v>343.805635527897</v>
       </c>
       <c r="P44" t="n">
         <v>343.805635527897</v>
@@ -30742,22 +30742,22 @@
         <v>343.805635527897</v>
       </c>
       <c r="R44" t="n">
-        <v>343.805635527897</v>
+        <v>338.006591902177</v>
       </c>
       <c r="S44" t="n">
         <v>283.4287923176152</v>
       </c>
       <c r="T44" t="n">
-        <v>232.0326933628447</v>
+        <v>225.5056166902763</v>
       </c>
       <c r="U44" t="n">
-        <v>279.2311718495718</v>
+        <v>248.0271961009711</v>
       </c>
       <c r="V44" t="n">
-        <v>308.2281821605244</v>
+        <v>339.432157909125</v>
       </c>
       <c r="W44" t="n">
-        <v>343.805635527897</v>
+        <v>327.2772532414092</v>
       </c>
       <c r="X44" t="n">
         <v>341.4686393609607</v>
@@ -35386,10 +35386,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.050587375258601</v>
+        <v>6.050587375258893</v>
       </c>
       <c r="D11" t="n">
-        <v>6.050587375258601</v>
+        <v>6.050587375258893</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -35404,13 +35404,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>5.488240337430398</v>
+        <v>5.488240337430511</v>
       </c>
       <c r="J11" t="n">
-        <v>6.050587375258601</v>
+        <v>6.050587375258893</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6805087866934598</v>
+        <v>2.572073816351707</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35419,7 +35419,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1.891565029658466</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -35431,22 +35431,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1.685928529868363</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.050587375258601</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>4.120190668612127</v>
+        <v>6.050587375258893</v>
       </c>
       <c r="U11" t="n">
-        <v>6.050587375258601</v>
+        <v>6.050587375258893</v>
       </c>
       <c r="V11" t="n">
-        <v>6.050587375258601</v>
+        <v>6.050587375258893</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>5.806119198480815</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -35623,10 +35623,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.855010797550412</v>
+        <v>6.855010797550119</v>
       </c>
       <c r="D14" t="n">
-        <v>6.855010797550412</v>
+        <v>6.855010797550119</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -35641,22 +35641,22 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>5.733200953418304</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>6.855010797550412</v>
+        <v>6.855010797550119</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2791509112307153</v>
+        <v>6.012351864649304</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.06288167270173517</v>
+        <v>0.0628816727016499</v>
       </c>
       <c r="N14" t="n">
-        <v>2.136525645646387</v>
+        <v>2.136525645646259</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -35668,22 +35668,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.930889145856156</v>
       </c>
       <c r="S14" t="n">
-        <v>6.855010797550412</v>
+        <v>6.855010797550119</v>
       </c>
       <c r="T14" t="n">
-        <v>6.855010797550412</v>
+        <v>4.647151518459554</v>
       </c>
       <c r="U14" t="n">
-        <v>6.578040664316049</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>6.855010797550119</v>
       </c>
       <c r="W14" t="n">
-        <v>6.855010797550412</v>
+        <v>6.855010797550119</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -35863,40 +35863,40 @@
         <v>16.18346265559563</v>
       </c>
       <c r="D17" t="n">
+        <v>12.75755212936463</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>16.18346265559563</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.473127151055962</v>
-      </c>
       <c r="K17" t="n">
-        <v>9.288140111059455</v>
+        <v>3.498708191500022</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>2.111571434692053</v>
       </c>
       <c r="N17" t="n">
         <v>4.18521540763669</v>
       </c>
       <c r="O17" t="n">
-        <v>1.121621139874208</v>
+        <v>1.121621139874229</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35905,19 +35905,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>3.979578907846587</v>
+        <v>3.979578907846591</v>
       </c>
       <c r="S17" t="n">
         <v>16.18346265559563</v>
       </c>
       <c r="T17" t="n">
-        <v>7.606564493441782</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>16.18346265559563</v>
       </c>
       <c r="V17" t="n">
-        <v>16.18346265559563</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>16.18346265559563</v>
@@ -36097,10 +36097,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>20.04024121506029</v>
+        <v>20.04024121506023</v>
       </c>
       <c r="D20" t="n">
-        <v>20.1854430787728</v>
+        <v>20.18544307877286</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -36115,13 +36115,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>8.303755193075801</v>
+        <v>8.303755193075745</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1.517806401387123</v>
       </c>
       <c r="K20" t="n">
-        <v>8.665589485628153</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>4.707079885303813</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -36139,28 +36139,28 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>2.440703198939616</v>
       </c>
       <c r="R20" t="n">
-        <v>4.501443385513767</v>
+        <v>4.501443385513713</v>
       </c>
       <c r="S20" t="n">
-        <v>20.1854430787728</v>
+        <v>20.18544307877286</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>20.18544307877286</v>
       </c>
       <c r="U20" t="n">
-        <v>20.1854430787728</v>
+        <v>20.18544307877286</v>
       </c>
       <c r="V20" t="n">
-        <v>20.1854430787728</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1.039395926730037</v>
+        <v>1.039395926729981</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -36334,10 +36334,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>21.33784145526664</v>
+        <v>21.3378414552667</v>
       </c>
       <c r="D23" t="n">
-        <v>31.2039757486005</v>
+        <v>31.20397574860044</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -36355,49 +36355,49 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>31.2039757486005</v>
+        <v>7.79927109059674</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>11.10760482893306</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>3.931036152565639</v>
       </c>
       <c r="N23" t="n">
-        <v>0.5797023067536458</v>
+        <v>6.004680125510276</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>2.941085857747794</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.738303439146023</v>
+        <v>3.73830343914608</v>
       </c>
       <c r="R23" t="n">
-        <v>5.79904362572012</v>
+        <v>5.799043625720177</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>31.20397574860044</v>
       </c>
       <c r="T23" t="n">
-        <v>31.2039757486005</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>31.2039757486005</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>31.20397574860044</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>2.336996166936387</v>
+        <v>2.336996166936444</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -36571,7 +36571,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>21.33784145526658</v>
       </c>
       <c r="D26" t="n">
         <v>31.20397574860056</v>
@@ -36589,10 +36589,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>9.601355433282095</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>18.00891657589453</v>
       </c>
       <c r="K26" t="n">
         <v>11.10760482893295</v>
@@ -36601,10 +36601,10 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>3.931036152565525</v>
       </c>
       <c r="N26" t="n">
-        <v>2.005801081201824</v>
+        <v>6.004680125510163</v>
       </c>
       <c r="O26" t="n">
         <v>2.94108585774768</v>
@@ -36613,25 +36613,25 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>3.738303439145948</v>
       </c>
       <c r="R26" t="n">
-        <v>5.799043625720063</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
         <v>31.20397574860056</v>
       </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
       <c r="U26" t="n">
-        <v>31.20397574860056</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>31.20397574860056</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>26.79337388902411</v>
       </c>
       <c r="X26" t="n">
         <v>2.336996166936331</v>
@@ -36808,10 +36808,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>13.47516398763872</v>
+        <v>21.3378414552667</v>
       </c>
       <c r="D29" t="n">
-        <v>31.2039757486005</v>
+        <v>21.57823293125784</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -36826,52 +36826,52 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>9.601355433282208</v>
       </c>
       <c r="J29" t="n">
-        <v>31.2039757486005</v>
+        <v>31.20397574860056</v>
       </c>
       <c r="K29" t="n">
-        <v>11.10760482893301</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>3.931036152565582</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>2.941085857747737</v>
+        <v>2.941085857747794</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>3.73830343914608</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>5.799043625720177</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>31.20397574860056</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>31.2039757486005</v>
+        <v>31.20397574860056</v>
       </c>
       <c r="V29" t="n">
-        <v>31.2039757486005</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>2.336996166936387</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -37045,10 +37045,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>22.57338937097461</v>
+        <v>22.57338937097455</v>
       </c>
       <c r="D32" t="n">
-        <v>38.40042017080765</v>
+        <v>38.40042017080759</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -37063,10 +37063,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>10.83690334899012</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>51.38941882737339</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -37075,40 +37075,40 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>5.166584068273551</v>
+        <v>2.560202247347547</v>
       </c>
       <c r="N32" t="n">
-        <v>7.240228041218188</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>4.176633773455706</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>4.973851354853991</v>
+        <v>4.973851354853934</v>
       </c>
       <c r="R32" t="n">
-        <v>7.034591541428089</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>7.495356343497061</v>
       </c>
       <c r="U32" t="n">
-        <v>8.841075017916452</v>
+        <v>51.38941882737345</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>36.81300128308061</v>
       </c>
       <c r="W32" t="n">
-        <v>28.02892180473214</v>
+        <v>28.02892180473208</v>
       </c>
       <c r="X32" t="n">
-        <v>3.572544082644356</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -37282,7 +37282,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>22.2030338335145</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -37300,13 +37300,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>10.46654781153006</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>45.33883145211479</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>1.143454378917397</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>6.869872503758145</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -37330,19 +37330,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>45.33883145211455</v>
       </c>
       <c r="T35" t="n">
-        <v>45.33883145211479</v>
+        <v>32.83159283445809</v>
       </c>
       <c r="U35" t="n">
-        <v>45.33883145211479</v>
+        <v>45.33883145211455</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>36.44264574562055</v>
       </c>
       <c r="W35" t="n">
-        <v>27.65856626727208</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -37519,10 +37519,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>22.15379519758858</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>37.98082599742173</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -37537,46 +37537,46 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>10.4173091756042</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>44.53440802982333</v>
       </c>
       <c r="K38" t="n">
-        <v>11.92355857125494</v>
+        <v>11.92355857125506</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4.74698989488752</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>6.820633867832285</v>
       </c>
       <c r="O38" t="n">
-        <v>3.757039600069675</v>
+        <v>3.757039600069788</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>4.55425718146796</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>6.614997368042168</v>
       </c>
       <c r="S38" t="n">
-        <v>8.216989028967379</v>
+        <v>22.37267292383554</v>
       </c>
       <c r="T38" t="n">
-        <v>44.53440802982298</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>44.53440802982298</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>36.39340710969464</v>
+        <v>36.39340710969475</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -37759,7 +37759,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>14.01787524778825</v>
+        <v>14.01787524778831</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -37774,52 +37774,52 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>9.846316049269888</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>35.20595617177778</v>
       </c>
       <c r="K41" t="n">
-        <v>11.35256544492074</v>
+        <v>11.35256544492069</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>4.175996768553262</v>
       </c>
       <c r="N41" t="n">
-        <v>6.249640741497956</v>
+        <v>6.249640741497899</v>
       </c>
       <c r="O41" t="n">
-        <v>3.186046473735473</v>
+        <v>3.186046473735416</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>3.983264055133759</v>
+        <v>3.983264055133684</v>
       </c>
       <c r="R41" t="n">
-        <v>6.044004241707857</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>35.20595617177772</v>
+        <v>35.20595617177778</v>
       </c>
       <c r="T41" t="n">
-        <v>35.20595617177772</v>
+        <v>35.20595617177778</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>10.56274192272434</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>27.0383345050119</v>
+        <v>14.10944377838354</v>
       </c>
       <c r="X41" t="n">
-        <v>2.581956782924124</v>
+        <v>2.581956782924067</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -37996,7 +37996,7 @@
         <v>21.33784145526653</v>
       </c>
       <c r="D44" t="n">
-        <v>1.359522869006923</v>
+        <v>31.20397574860061</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -38023,37 +38023,37 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>3.931036152565412</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>6.004680125510049</v>
+        <v>6.004680125510035</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>2.941085857747566</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>3.738303439145852</v>
+        <v>3.738303439145842</v>
       </c>
       <c r="R44" t="n">
-        <v>5.799043625720003</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>6.52707667256844</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
         <v>31.20397574860061</v>
       </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
       <c r="W44" t="n">
-        <v>26.79337388902405</v>
+        <v>10.26499160253627</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
